--- a/RPS-AWS-databricks-Lab-08092025.xlsx
+++ b/RPS-AWS-databricks-Lab-08092025.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDA4BE-ED8E-4AA4-8A63-5F2CAEDB8AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="rps-aws-databricks-lab" sheetId="1" r:id="rId4"/>
+    <sheet name="rps-aws-databricks-lab" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>S.No</t>
   </si>
@@ -42,7 +51,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -56,7 +65,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -67,7 +76,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -78,7 +87,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -89,7 +98,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -100,7 +109,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -111,7 +120,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -122,7 +131,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -133,7 +142,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -144,7 +153,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -155,7 +164,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -166,7 +175,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -177,7 +186,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -188,7 +197,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -199,7 +208,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -210,7 +219,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -221,7 +230,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -232,7 +241,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -243,7 +252,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -254,7 +263,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -265,7 +274,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -276,7 +285,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -287,7 +296,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -298,7 +307,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -309,7 +318,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -320,7 +329,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -331,7 +340,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -342,7 +351,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -353,7 +362,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -364,7 +373,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -375,7 +384,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -386,7 +395,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -397,7 +406,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -408,7 +417,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -419,7 +428,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -430,7 +439,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -441,7 +450,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -452,7 +461,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -463,7 +472,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -474,7 +483,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -485,7 +494,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -496,7 +505,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -507,7 +516,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -518,7 +527,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -529,7 +538,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
@@ -540,7 +549,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Calibri"/>
@@ -551,64 +560,72 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="11"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>udaydara@gmail.com</t>
     </r>
+  </si>
+  <si>
+    <t>https://883601963544.signin.aws.amazon.com/console?region=us-west-2</t>
+  </si>
+  <si>
+    <t>https://accounts.cloud.databricks.com/</t>
+  </si>
+  <si>
+    <t>akhila.gudla6@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="11"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,8 +638,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -645,62 +668,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff0000ee"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ff467885"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF467885"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -902,7 +1000,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -920,7 +1018,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -949,7 +1047,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +1072,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1097,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1024,7 +1122,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1147,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1074,7 +1172,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1099,7 +1197,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,7 +1222,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1149,7 +1247,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,9 +1260,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1181,7 +1285,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1199,7 +1303,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1224,7 +1328,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1353,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1274,7 +1378,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1299,7 +1403,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1324,7 +1428,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1453,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1478,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1399,7 +1503,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1424,7 +1528,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,9 +1541,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1453,7 +1563,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1471,7 +1581,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1500,7 +1610,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1525,7 +1635,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1550,7 +1660,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1685,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1600,7 +1710,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1625,7 +1735,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1650,7 +1760,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1675,7 +1785,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1700,7 +1810,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1713,660 +1823,696 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.17188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.1719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
+    <row r="2" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15.5" customHeight="1">
+    <row r="3" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="15.5" customHeight="1">
+    <row r="4" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="4">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s" s="2">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="2">
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s" s="6">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="15.5" customHeight="1">
+    <row r="5" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="6">
+      <c r="G5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="15.5" customHeight="1">
+    <row r="6" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s" s="4">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s" s="2">
+      <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s" s="6">
+      <c r="G6" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" ht="15.5" customHeight="1">
+    <row r="7" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s" s="4">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s" s="2">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s" s="2">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s" s="6">
+      <c r="G7" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="15.5" customHeight="1">
+    <row r="8" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="4">
+      <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s" s="2">
+      <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="2">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s" s="6">
+      <c r="G8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="15.5" customHeight="1">
+    <row r="9" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s" s="4">
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s" s="6">
+      <c r="G9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="15.5" customHeight="1">
+    <row r="10" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s" s="4">
+      <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s" s="6">
+      <c r="G10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" ht="15.5" customHeight="1">
+    <row r="11" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s" s="4">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s" s="6">
+      <c r="G11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" ht="15.5" customHeight="1">
+    <row r="12" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s" s="4">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s" s="6">
+      <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" ht="15.5" customHeight="1">
+    <row r="13" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s" s="6">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" ht="15.5" customHeight="1">
+    <row r="14" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C14" t="s" s="4">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s" s="6">
+      <c r="G14" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" ht="15.5" customHeight="1">
+    <row r="15" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s" s="4">
+      <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E15" t="s" s="2">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="F15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s" s="6">
+      <c r="G15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" ht="15.5" customHeight="1">
+    <row r="16" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s" s="4">
+      <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s" s="6">
+      <c r="G16" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" ht="15.5" customHeight="1">
+    <row r="17" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s" s="4">
+      <c r="C17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s" s="5">
+      <c r="D17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s" s="6">
+      <c r="G17" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" ht="15.5" customHeight="1">
+    <row r="18" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s" s="6">
+      <c r="G18" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" ht="15.5" customHeight="1">
+    <row r="19" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C19" t="s" s="4">
+      <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s" s="6">
+      <c r="G19" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" ht="15.5" customHeight="1">
+    <row r="20" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s" s="6">
+      <c r="G20" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" ht="15.5" customHeight="1">
+    <row r="21" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C21" t="s" s="4">
+      <c r="C21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s" s="6">
+      <c r="G21" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" ht="15.5" customHeight="1">
+    <row r="22" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="s" s="4">
+      <c r="C22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s" s="6">
+      <c r="G22" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" ht="15.5" customHeight="1">
+    <row r="23" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" t="s" s="4">
+      <c r="C23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s" s="5">
+      <c r="D23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s" s="6">
+      <c r="G23" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" ht="15.5" customHeight="1">
+    <row r="24" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" t="s" s="4">
+      <c r="C24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="s" s="5">
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s" s="6">
+      <c r="G24" s="6" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="https://946996831851.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F2" r:id="rId2" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G2" r:id="rId3" location="" tooltip="" display="deepanshu@meteoros.in"/>
-    <hyperlink ref="D3" r:id="rId4" location="" tooltip="" display="https://968038124144.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F3" r:id="rId5" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G3" r:id="rId6" location="" tooltip="" display="shravanibashetty5157@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId7" location="" tooltip="" display="https://366289763431.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F4" r:id="rId8" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G4" r:id="rId9" location="" tooltip="" display="adityasriramadasu@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId10" location="" tooltip="" display="https://761416253237.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F5" r:id="rId11" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G5" r:id="rId12" location="" tooltip="" display="karthikreddyaedudodla@gmail.com"/>
-    <hyperlink ref="D6" r:id="rId13" location="" tooltip="" display="https://169015925466.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F6" r:id="rId14" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G6" r:id="rId15" location="" tooltip="" display="a.chandrikareddy3@gmail.com"/>
-    <hyperlink ref="D7" r:id="rId16" location="" tooltip="" display="https://314966726043.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F7" r:id="rId17" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G7" r:id="rId18" location="" tooltip="" display="gowrilakshmi.dadi@gmail.com"/>
-    <hyperlink ref="D8" r:id="rId19" location="" tooltip="" display="https://302238196304.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F8" r:id="rId20" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G8" r:id="rId21" location="" tooltip="" display="gauravkeshrigk@gmail.com"/>
-    <hyperlink ref="D9" r:id="rId22" location="" tooltip="" display="https://455091097550.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F9" r:id="rId23" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G9" r:id="rId24" location="" tooltip="" display="b.kapilcool@gmail.com"/>
-    <hyperlink ref="D10" r:id="rId25" location="" tooltip="" display="https://064121238418.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F10" r:id="rId26" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G10" r:id="rId27" location="" tooltip="" display="kartheek.vaidya@chase.com"/>
-    <hyperlink ref="D11" r:id="rId28" location="" tooltip="" display="https://278351048315.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F11" r:id="rId29" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G11" r:id="rId30" location="" tooltip="" display="rvrkc2404@gmail.com"/>
-    <hyperlink ref="D12" r:id="rId31" location="" tooltip="" display="https://360835911332.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F12" r:id="rId32" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G12" r:id="rId33" location="" tooltip="" display="mail.kunaljoshi@gmail.com"/>
-    <hyperlink ref="D13" r:id="rId34" location="" tooltip="" display="https://246649974763.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F13" r:id="rId35" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G13" r:id="rId36" location="" tooltip="" display="sushm543@gmail.com"/>
-    <hyperlink ref="D14" r:id="rId37" location="" tooltip="" display="https://727141471483.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F14" r:id="rId38" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G14" r:id="rId39" location="" tooltip="" display="madan546@gmail.com"/>
-    <hyperlink ref="D15" r:id="rId40" location="" tooltip="" display="https://470168336785.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F15" r:id="rId41" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G15" r:id="rId42" location="" tooltip="" display="megha.gowda@chase.com"/>
-    <hyperlink ref="D16" r:id="rId43" location="" tooltip="" display="https://725762097274.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F16" r:id="rId44" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G16" r:id="rId45" location="" tooltip="" display="nitya.dennis@chase.com"/>
-    <hyperlink ref="D17" r:id="rId46" location="" tooltip="" display="https://967922246216.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F17" r:id="rId47" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G17" r:id="rId48" location="" tooltip="" display="priyankakalamraj@gmail.com"/>
-    <hyperlink ref="D18" r:id="rId49" location="" tooltip="" display="https://011051162969.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F18" r:id="rId50" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G18" r:id="rId51" location="" tooltip="" display="ramesh.thurubilli@gmail.com"/>
-    <hyperlink ref="D19" r:id="rId52" location="" tooltip="" display="https://037071919608.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F19" r:id="rId53" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G19" r:id="rId54" location="" tooltip="" display="ramyajmys@gmail.com"/>
-    <hyperlink ref="D20" r:id="rId55" location="" tooltip="" display="https://714175144857.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F20" r:id="rId56" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G20" r:id="rId57" location="" tooltip="" display="Ranga.s.kovela@gmail.com"/>
-    <hyperlink ref="D21" r:id="rId58" location="" tooltip="" display="https://359563051859.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F21" r:id="rId59" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G21" r:id="rId60" location="" tooltip="" display="reshma.suthar@chase.com"/>
-    <hyperlink ref="D22" r:id="rId61" location="" tooltip="" display="https://643012873345.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F22" r:id="rId62" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G22" r:id="rId63" location="" tooltip="" display="shreeniketan@gmail.com"/>
-    <hyperlink ref="D23" r:id="rId64" location="" tooltip="" display="https://065706550104.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F23" r:id="rId65" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G23" r:id="rId66" location="" tooltip="" display="asunilmanyam@gmail.com"/>
-    <hyperlink ref="D24" r:id="rId67" location="" tooltip="" display="https://782324665474.signin.aws.amazon.com/console?region=us-west-2"/>
-    <hyperlink ref="F24" r:id="rId68" location="" tooltip="" display="https://accounts.cloud.databricks.com/"/>
-    <hyperlink ref="G24" r:id="rId69" location="" tooltip="" display="udaydara@gmail.com"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G5" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D6" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G6" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F7" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D8" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F8" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G9" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G10" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F11" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="G11" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D12" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F12" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F13" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="G13" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D14" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="F14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G14" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D15" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="F15" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G15" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D16" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F16" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G16" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D17" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="F17" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="G17" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D18" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F18" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G18" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D19" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F19" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="G19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D20" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F20" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G20" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D21" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F21" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="G21" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D22" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="F22" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="G22" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D23" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="F23" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="G23" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D24" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="F24" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G24" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D25" r:id="rId70" tooltip="https://883601963544.signin.aws.amazon.com/console?region=us-west-2" xr:uid="{56192CE6-C8C6-4093-A341-35D3BA94B782}"/>
+    <hyperlink ref="F25" r:id="rId71" tooltip="https://accounts.cloud.databricks.com/" xr:uid="{DD60A383-B205-4229-A6E2-8D0DC2971E16}"/>
+    <hyperlink ref="G25" r:id="rId72" tooltip="mailto:akhila.gudla6@gmail.com" display="mailto:akhila.gudla6@gmail.com" xr:uid="{FC70DB1F-FA02-49AD-8E1E-BBB563C4F349}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/RPS-AWS-databricks-Lab-08092025.xlsx
+++ b/RPS-AWS-databricks-Lab-08092025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CDA4BE-ED8E-4AA4-8A63-5F2CAEDB8AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14253DF4-2C20-47B0-AFF3-B095DA8D1932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
